--- a/7/1/1/1/5/Series desestacionalizadas 2013 a 2021 - Mensual.xlsx
+++ b/7/1/1/1/5/Series desestacionalizadas 2013 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>Serie</t>
   </si>
@@ -404,6 +404,15 @@
   </si>
   <si>
     <t>01-03-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -761,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE100"/>
+  <dimension ref="A1:AE103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -867,13 +876,13 @@
         <v>31</v>
       </c>
       <c r="B2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C2">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E2">
         <v>1094</v>
@@ -882,10 +891,10 @@
         <v>149</v>
       </c>
       <c r="G2">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I2">
         <v>172</v>
@@ -900,7 +909,7 @@
         <v>95</v>
       </c>
       <c r="M2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N2">
         <v>182</v>
@@ -924,7 +933,7 @@
         <v>207</v>
       </c>
       <c r="U2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V2">
         <v>356</v>
@@ -945,7 +954,7 @@
         <v>510</v>
       </c>
       <c r="AB2">
-        <v>10349</v>
+        <v>10348</v>
       </c>
       <c r="AC2">
         <v>904</v>
@@ -954,7 +963,7 @@
         <v>62</v>
       </c>
       <c r="AE2">
-        <v>11315</v>
+        <v>11314</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -977,7 +986,7 @@
         <v>143</v>
       </c>
       <c r="G3">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H3">
         <v>336</v>
@@ -995,10 +1004,10 @@
         <v>96</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N3">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O3">
         <v>73</v>
@@ -1013,7 +1022,7 @@
         <v>733</v>
       </c>
       <c r="S3">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T3">
         <v>209</v>
@@ -1025,7 +1034,7 @@
         <v>348</v>
       </c>
       <c r="W3">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="X3">
         <v>1205</v>
@@ -1040,7 +1049,7 @@
         <v>515</v>
       </c>
       <c r="AB3">
-        <v>10321</v>
+        <v>10319</v>
       </c>
       <c r="AC3">
         <v>897</v>
@@ -1049,7 +1058,7 @@
         <v>48</v>
       </c>
       <c r="AE3">
-        <v>11266</v>
+        <v>11265</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1060,7 +1069,7 @@
         <v>342</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1244</v>
@@ -1072,7 +1081,7 @@
         <v>139</v>
       </c>
       <c r="G4">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="H4">
         <v>340</v>
@@ -1090,10 +1099,10 @@
         <v>97</v>
       </c>
       <c r="M4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N4">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O4">
         <v>78</v>
@@ -1135,7 +1144,7 @@
         <v>514</v>
       </c>
       <c r="AB4">
-        <v>10397</v>
+        <v>10394</v>
       </c>
       <c r="AC4">
         <v>891</v>
@@ -1144,7 +1153,7 @@
         <v>60</v>
       </c>
       <c r="AE4">
-        <v>11348</v>
+        <v>11345</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1167,7 +1176,7 @@
         <v>144</v>
       </c>
       <c r="G5">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="H5">
         <v>337</v>
@@ -1185,7 +1194,7 @@
         <v>100</v>
       </c>
       <c r="M5">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N5">
         <v>172</v>
@@ -1203,7 +1212,7 @@
         <v>747</v>
       </c>
       <c r="S5">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="T5">
         <v>211</v>
@@ -1230,16 +1239,16 @@
         <v>514</v>
       </c>
       <c r="AB5">
-        <v>10439</v>
+        <v>10445</v>
       </c>
       <c r="AC5">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AD5">
         <v>55</v>
       </c>
       <c r="AE5">
-        <v>11405</v>
+        <v>11413</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -1262,10 +1271,10 @@
         <v>141</v>
       </c>
       <c r="G6">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="H6">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I6">
         <v>172</v>
@@ -1280,7 +1289,7 @@
         <v>104</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="N6">
         <v>177</v>
@@ -1313,7 +1322,7 @@
         <v>571</v>
       </c>
       <c r="X6">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="Y6">
         <v>815</v>
@@ -1325,7 +1334,7 @@
         <v>514</v>
       </c>
       <c r="AB6">
-        <v>10473</v>
+        <v>10479</v>
       </c>
       <c r="AC6">
         <v>916</v>
@@ -1334,7 +1343,7 @@
         <v>46</v>
       </c>
       <c r="AE6">
-        <v>11435</v>
+        <v>11441</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -1357,7 +1366,7 @@
         <v>144</v>
       </c>
       <c r="G7">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H7">
         <v>333</v>
@@ -1420,7 +1429,7 @@
         <v>514</v>
       </c>
       <c r="AB7">
-        <v>10628</v>
+        <v>10625</v>
       </c>
       <c r="AC7">
         <v>916</v>
@@ -1429,7 +1438,7 @@
         <v>52</v>
       </c>
       <c r="AE7">
-        <v>11596</v>
+        <v>11593</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1449,10 +1458,10 @@
         <v>1148</v>
       </c>
       <c r="F8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G8">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H8">
         <v>334</v>
@@ -1461,7 +1470,7 @@
         <v>174</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>67</v>
@@ -1470,7 +1479,7 @@
         <v>105</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N8">
         <v>183</v>
@@ -1488,7 +1497,7 @@
         <v>748</v>
       </c>
       <c r="S8">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="T8">
         <v>218</v>
@@ -1515,7 +1524,7 @@
         <v>516</v>
       </c>
       <c r="AB8">
-        <v>10623</v>
+        <v>10621</v>
       </c>
       <c r="AC8">
         <v>930</v>
@@ -1524,7 +1533,7 @@
         <v>55</v>
       </c>
       <c r="AE8">
-        <v>11608</v>
+        <v>11606</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1547,7 +1556,7 @@
         <v>135</v>
       </c>
       <c r="G9">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H9">
         <v>339</v>
@@ -1565,7 +1574,7 @@
         <v>106</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>189</v>
@@ -1583,7 +1592,7 @@
         <v>757</v>
       </c>
       <c r="S9">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="T9">
         <v>213</v>
@@ -1595,7 +1604,7 @@
         <v>361</v>
       </c>
       <c r="W9">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="X9">
         <v>1217</v>
@@ -1610,16 +1619,16 @@
         <v>517</v>
       </c>
       <c r="AB9">
-        <v>10579</v>
+        <v>10578</v>
       </c>
       <c r="AC9">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AD9">
         <v>59</v>
       </c>
       <c r="AE9">
-        <v>11577</v>
+        <v>11575</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1633,7 +1642,7 @@
         <v>53</v>
       </c>
       <c r="D10">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E10">
         <v>1169</v>
@@ -1642,7 +1651,7 @@
         <v>136</v>
       </c>
       <c r="G10">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H10">
         <v>331</v>
@@ -1660,7 +1669,7 @@
         <v>102</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>188</v>
@@ -1684,7 +1693,7 @@
         <v>214</v>
       </c>
       <c r="U10">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V10">
         <v>362</v>
@@ -1705,7 +1714,7 @@
         <v>517</v>
       </c>
       <c r="AB10">
-        <v>10584</v>
+        <v>10580</v>
       </c>
       <c r="AC10">
         <v>923</v>
@@ -1714,7 +1723,7 @@
         <v>58</v>
       </c>
       <c r="AE10">
-        <v>11565</v>
+        <v>11562</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1737,7 +1746,7 @@
         <v>138</v>
       </c>
       <c r="G11">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H11">
         <v>330</v>
@@ -1755,7 +1764,7 @@
         <v>99</v>
       </c>
       <c r="M11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N11">
         <v>190</v>
@@ -1770,10 +1779,10 @@
         <v>298</v>
       </c>
       <c r="R11">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S11">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="T11">
         <v>212</v>
@@ -1788,7 +1797,7 @@
         <v>583</v>
       </c>
       <c r="X11">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="Y11">
         <v>819</v>
@@ -1800,16 +1809,16 @@
         <v>517</v>
       </c>
       <c r="AB11">
-        <v>10605</v>
+        <v>10604</v>
       </c>
       <c r="AC11">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AD11">
         <v>54</v>
       </c>
       <c r="AE11">
-        <v>11595</v>
+        <v>11593</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1832,7 +1841,7 @@
         <v>137</v>
       </c>
       <c r="G12">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="H12">
         <v>335</v>
@@ -1850,7 +1859,7 @@
         <v>105</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>194</v>
@@ -1895,16 +1904,16 @@
         <v>519</v>
       </c>
       <c r="AB12">
-        <v>10682</v>
+        <v>10679</v>
       </c>
       <c r="AC12">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AD12">
         <v>53</v>
       </c>
       <c r="AE12">
-        <v>11674</v>
+        <v>11671</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1927,13 +1936,13 @@
         <v>125</v>
       </c>
       <c r="G13">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="H13">
         <v>319</v>
       </c>
       <c r="I13">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J13">
         <v>29</v>
@@ -1945,7 +1954,7 @@
         <v>102</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>189</v>
@@ -1990,7 +1999,7 @@
         <v>521</v>
       </c>
       <c r="AB13">
-        <v>10570</v>
+        <v>10567</v>
       </c>
       <c r="AC13">
         <v>935</v>
@@ -1999,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="AE13">
-        <v>11555</v>
+        <v>11551</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2022,7 +2031,7 @@
         <v>135</v>
       </c>
       <c r="G14">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="H14">
         <v>325</v>
@@ -2031,7 +2040,7 @@
         <v>157</v>
       </c>
       <c r="J14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>64</v>
@@ -2040,13 +2049,13 @@
         <v>105</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>196</v>
       </c>
       <c r="O14">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P14">
         <v>212</v>
@@ -2073,10 +2082,10 @@
         <v>589</v>
       </c>
       <c r="X14">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Y14">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="Z14">
         <v>1276</v>
@@ -2085,16 +2094,16 @@
         <v>525</v>
       </c>
       <c r="AB14">
-        <v>10575</v>
+        <v>10574</v>
       </c>
       <c r="AC14">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AD14">
         <v>62</v>
       </c>
       <c r="AE14">
-        <v>11572</v>
+        <v>11571</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2105,22 +2114,22 @@
         <v>315</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E15">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F15">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G15">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="H15">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I15">
         <v>153</v>
@@ -2135,7 +2144,7 @@
         <v>104</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N15">
         <v>195</v>
@@ -2180,16 +2189,16 @@
         <v>528</v>
       </c>
       <c r="AB15">
-        <v>10677</v>
+        <v>10676</v>
       </c>
       <c r="AC15">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AD15">
         <v>57</v>
       </c>
       <c r="AE15">
-        <v>11659</v>
+        <v>11658</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2200,10 +2209,10 @@
         <v>315</v>
       </c>
       <c r="C16">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E16">
         <v>1153</v>
@@ -2212,7 +2221,7 @@
         <v>132</v>
       </c>
       <c r="G16">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="H16">
         <v>356</v>
@@ -2230,7 +2239,7 @@
         <v>103</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N16">
         <v>192</v>
@@ -2239,7 +2248,7 @@
         <v>72</v>
       </c>
       <c r="P16">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>293</v>
@@ -2275,16 +2284,16 @@
         <v>527</v>
       </c>
       <c r="AB16">
-        <v>10660</v>
+        <v>10657</v>
       </c>
       <c r="AC16">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AD16">
         <v>49</v>
       </c>
       <c r="AE16">
-        <v>11642</v>
+        <v>11639</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -2307,7 +2316,7 @@
         <v>135</v>
       </c>
       <c r="G17">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="H17">
         <v>339</v>
@@ -2325,7 +2334,7 @@
         <v>102</v>
       </c>
       <c r="M17">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="N17">
         <v>199</v>
@@ -2343,7 +2352,7 @@
         <v>744</v>
       </c>
       <c r="S17">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="T17">
         <v>220</v>
@@ -2370,16 +2379,16 @@
         <v>526</v>
       </c>
       <c r="AB17">
-        <v>10667</v>
+        <v>10674</v>
       </c>
       <c r="AC17">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="AD17">
         <v>48</v>
       </c>
       <c r="AE17">
-        <v>11641</v>
+        <v>11652</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -2402,25 +2411,25 @@
         <v>137</v>
       </c>
       <c r="G18">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="H18">
         <v>343</v>
       </c>
       <c r="I18">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J18">
         <v>29</v>
       </c>
       <c r="K18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18">
         <v>106</v>
       </c>
       <c r="M18">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="N18">
         <v>197</v>
@@ -2429,7 +2438,7 @@
         <v>74</v>
       </c>
       <c r="P18">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>313</v>
@@ -2453,7 +2462,7 @@
         <v>591</v>
       </c>
       <c r="X18">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="Y18">
         <v>847</v>
@@ -2465,7 +2474,7 @@
         <v>526</v>
       </c>
       <c r="AB18">
-        <v>10729</v>
+        <v>10736</v>
       </c>
       <c r="AC18">
         <v>934</v>
@@ -2474,7 +2483,7 @@
         <v>50</v>
       </c>
       <c r="AE18">
-        <v>11712</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -2494,7 +2503,7 @@
         <v>1181</v>
       </c>
       <c r="F19">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G19">
         <v>1257</v>
@@ -2533,7 +2542,7 @@
         <v>731</v>
       </c>
       <c r="S19">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="T19">
         <v>219</v>
@@ -2545,7 +2554,7 @@
         <v>369</v>
       </c>
       <c r="W19">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="X19">
         <v>1236</v>
@@ -2554,22 +2563,22 @@
         <v>849</v>
       </c>
       <c r="Z19">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="AA19">
         <v>526</v>
       </c>
       <c r="AB19">
-        <v>10685</v>
+        <v>10681</v>
       </c>
       <c r="AC19">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AD19">
         <v>45</v>
       </c>
       <c r="AE19">
-        <v>11663</v>
+        <v>11659</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -2592,7 +2601,7 @@
         <v>135</v>
       </c>
       <c r="G20">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H20">
         <v>343</v>
@@ -2628,7 +2637,7 @@
         <v>721</v>
       </c>
       <c r="S20">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="T20">
         <v>221</v>
@@ -2640,7 +2649,7 @@
         <v>368</v>
       </c>
       <c r="W20">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="X20">
         <v>1224</v>
@@ -2649,13 +2658,13 @@
         <v>864</v>
       </c>
       <c r="Z20">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="AA20">
         <v>526</v>
       </c>
       <c r="AB20">
-        <v>10686</v>
+        <v>10683</v>
       </c>
       <c r="AC20">
         <v>925</v>
@@ -2664,7 +2673,7 @@
         <v>44</v>
       </c>
       <c r="AE20">
-        <v>11656</v>
+        <v>11652</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -2678,7 +2687,7 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E21">
         <v>1095</v>
@@ -2687,10 +2696,10 @@
         <v>144</v>
       </c>
       <c r="G21">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H21">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I21">
         <v>163</v>
@@ -2705,7 +2714,7 @@
         <v>101</v>
       </c>
       <c r="M21">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>190</v>
@@ -2735,7 +2744,7 @@
         <v>372</v>
       </c>
       <c r="W21">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="X21">
         <v>1231</v>
@@ -2744,13 +2753,13 @@
         <v>855</v>
       </c>
       <c r="Z21">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="AA21">
         <v>529</v>
       </c>
       <c r="AB21">
-        <v>10651</v>
+        <v>10648</v>
       </c>
       <c r="AC21">
         <v>937</v>
@@ -2759,7 +2768,7 @@
         <v>48</v>
       </c>
       <c r="AE21">
-        <v>11637</v>
+        <v>11634</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -2782,7 +2791,7 @@
         <v>143</v>
       </c>
       <c r="G22">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="H22">
         <v>324</v>
@@ -2800,7 +2809,7 @@
         <v>101</v>
       </c>
       <c r="M22">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <v>191</v>
@@ -2815,10 +2824,10 @@
         <v>314</v>
       </c>
       <c r="R22">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="S22">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="T22">
         <v>223</v>
@@ -2830,7 +2839,7 @@
         <v>374</v>
       </c>
       <c r="W22">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="X22">
         <v>1228</v>
@@ -2845,16 +2854,16 @@
         <v>531</v>
       </c>
       <c r="AB22">
-        <v>10727</v>
+        <v>10723</v>
       </c>
       <c r="AC22">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AD22">
         <v>56</v>
       </c>
       <c r="AE22">
-        <v>11721</v>
+        <v>11716</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -2868,16 +2877,16 @@
         <v>66</v>
       </c>
       <c r="D23">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E23">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="F23">
         <v>145</v>
       </c>
       <c r="G23">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="H23">
         <v>336</v>
@@ -2895,7 +2904,7 @@
         <v>103</v>
       </c>
       <c r="M23">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N23">
         <v>202</v>
@@ -2910,10 +2919,10 @@
         <v>320</v>
       </c>
       <c r="R23">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S23">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="T23">
         <v>222</v>
@@ -2925,7 +2934,7 @@
         <v>375</v>
       </c>
       <c r="W23">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="X23">
         <v>1223</v>
@@ -2934,7 +2943,7 @@
         <v>866</v>
       </c>
       <c r="Z23">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="AA23">
         <v>535</v>
@@ -2943,13 +2952,13 @@
         <v>10827</v>
       </c>
       <c r="AC23">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AD23">
         <v>49</v>
       </c>
       <c r="AE23">
-        <v>11817</v>
+        <v>11816</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -2969,16 +2978,16 @@
         <v>1120</v>
       </c>
       <c r="F24">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H24">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I24">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J24">
         <v>29</v>
@@ -2990,7 +2999,7 @@
         <v>102</v>
       </c>
       <c r="M24">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N24">
         <v>192</v>
@@ -3005,7 +3014,7 @@
         <v>322</v>
       </c>
       <c r="R24">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="S24">
         <v>1066</v>
@@ -3023,7 +3032,7 @@
         <v>603</v>
       </c>
       <c r="X24">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="Y24">
         <v>866</v>
@@ -3035,16 +3044,16 @@
         <v>538</v>
       </c>
       <c r="AB24">
-        <v>10800</v>
+        <v>10797</v>
       </c>
       <c r="AC24">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AD24">
         <v>57</v>
       </c>
       <c r="AE24">
-        <v>11794</v>
+        <v>11790</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -3052,7 +3061,7 @@
         <v>54</v>
       </c>
       <c r="B25">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C25">
         <v>56</v>
@@ -3061,13 +3070,13 @@
         <v>1278</v>
       </c>
       <c r="E25">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F25">
         <v>139</v>
       </c>
       <c r="G25">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="H25">
         <v>329</v>
@@ -3085,7 +3094,7 @@
         <v>98</v>
       </c>
       <c r="M25">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N25">
         <v>194</v>
@@ -3103,7 +3112,7 @@
         <v>727</v>
       </c>
       <c r="S25">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="T25">
         <v>223</v>
@@ -3118,7 +3127,7 @@
         <v>606</v>
       </c>
       <c r="X25">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="Y25">
         <v>873</v>
@@ -3130,16 +3139,16 @@
         <v>539</v>
       </c>
       <c r="AB25">
-        <v>10790</v>
+        <v>10786</v>
       </c>
       <c r="AC25">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AD25">
         <v>50</v>
       </c>
       <c r="AE25">
-        <v>11805</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3156,13 +3165,13 @@
         <v>1369</v>
       </c>
       <c r="E26">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="F26">
         <v>140</v>
       </c>
       <c r="G26">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="H26">
         <v>326</v>
@@ -3180,7 +3189,7 @@
         <v>104</v>
       </c>
       <c r="M26">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N26">
         <v>190</v>
@@ -3195,7 +3204,7 @@
         <v>309</v>
       </c>
       <c r="R26">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S26">
         <v>1091</v>
@@ -3210,7 +3219,7 @@
         <v>379</v>
       </c>
       <c r="W26">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="X26">
         <v>1237</v>
@@ -3228,13 +3237,13 @@
         <v>10883</v>
       </c>
       <c r="AC26">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AD26">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AE26">
-        <v>11879</v>
+        <v>11878</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3248,22 +3257,22 @@
         <v>62</v>
       </c>
       <c r="D27">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="E27">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F27">
         <v>136</v>
       </c>
       <c r="G27">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="H27">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I27">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J27">
         <v>30</v>
@@ -3275,7 +3284,7 @@
         <v>106</v>
       </c>
       <c r="M27">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N27">
         <v>194</v>
@@ -3287,10 +3296,10 @@
         <v>209</v>
       </c>
       <c r="Q27">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="R27">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="S27">
         <v>1089</v>
@@ -3323,7 +3332,7 @@
         <v>10817</v>
       </c>
       <c r="AC27">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AD27">
         <v>60</v>
@@ -3346,13 +3355,13 @@
         <v>1260</v>
       </c>
       <c r="E28">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F28">
         <v>133</v>
       </c>
       <c r="G28">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="H28">
         <v>320</v>
@@ -3367,10 +3376,10 @@
         <v>68</v>
       </c>
       <c r="L28">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M28">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N28">
         <v>190</v>
@@ -3388,7 +3397,7 @@
         <v>762</v>
       </c>
       <c r="S28">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="T28">
         <v>227</v>
@@ -3415,7 +3424,7 @@
         <v>541</v>
       </c>
       <c r="AB28">
-        <v>10808</v>
+        <v>10805</v>
       </c>
       <c r="AC28">
         <v>942</v>
@@ -3424,7 +3433,7 @@
         <v>49</v>
       </c>
       <c r="AE28">
-        <v>11799</v>
+        <v>11795</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -3438,22 +3447,22 @@
         <v>66</v>
       </c>
       <c r="D29">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="E29">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F29">
         <v>133</v>
       </c>
       <c r="G29">
-        <v>1275</v>
+        <v>1280</v>
       </c>
       <c r="H29">
         <v>329</v>
       </c>
       <c r="I29">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J29">
         <v>30</v>
@@ -3465,13 +3474,13 @@
         <v>104</v>
       </c>
       <c r="M29">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N29">
         <v>188</v>
       </c>
       <c r="O29">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P29">
         <v>200</v>
@@ -3480,16 +3489,16 @@
         <v>291</v>
       </c>
       <c r="R29">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="S29">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="T29">
         <v>226</v>
       </c>
       <c r="U29">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="V29">
         <v>385</v>
@@ -3501,7 +3510,7 @@
         <v>1230</v>
       </c>
       <c r="Y29">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="Z29">
         <v>1308</v>
@@ -3510,16 +3519,16 @@
         <v>544</v>
       </c>
       <c r="AB29">
-        <v>10950</v>
+        <v>10959</v>
       </c>
       <c r="AC29">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="AD29">
         <v>57</v>
       </c>
       <c r="AE29">
-        <v>11968</v>
+        <v>11983</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -3536,16 +3545,16 @@
         <v>1301</v>
       </c>
       <c r="E30">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F30">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="H30">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I30">
         <v>188</v>
@@ -3560,7 +3569,7 @@
         <v>97</v>
       </c>
       <c r="M30">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="N30">
         <v>202</v>
@@ -3578,7 +3587,7 @@
         <v>780</v>
       </c>
       <c r="S30">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="T30">
         <v>229</v>
@@ -3587,13 +3596,13 @@
         <v>587</v>
       </c>
       <c r="V30">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W30">
         <v>617</v>
       </c>
       <c r="X30">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="Y30">
         <v>879</v>
@@ -3605,7 +3614,7 @@
         <v>548</v>
       </c>
       <c r="AB30">
-        <v>10961</v>
+        <v>10970</v>
       </c>
       <c r="AC30">
         <v>940</v>
@@ -3614,7 +3623,7 @@
         <v>47</v>
       </c>
       <c r="AE30">
-        <v>11947</v>
+        <v>11957</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -3628,25 +3637,25 @@
         <v>56</v>
       </c>
       <c r="D31">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E31">
         <v>1226</v>
       </c>
       <c r="F31">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="H31">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I31">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K31">
         <v>69</v>
@@ -3670,10 +3679,10 @@
         <v>313</v>
       </c>
       <c r="R31">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="S31">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="T31">
         <v>230</v>
@@ -3694,13 +3703,13 @@
         <v>880</v>
       </c>
       <c r="Z31">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="AA31">
         <v>550</v>
       </c>
       <c r="AB31">
-        <v>11024</v>
+        <v>11017</v>
       </c>
       <c r="AC31">
         <v>960</v>
@@ -3709,7 +3718,7 @@
         <v>49</v>
       </c>
       <c r="AE31">
-        <v>12033</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -3726,13 +3735,13 @@
         <v>1249</v>
       </c>
       <c r="E32">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F32">
         <v>130</v>
       </c>
       <c r="G32">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="H32">
         <v>326</v>
@@ -3750,7 +3759,7 @@
         <v>100</v>
       </c>
       <c r="M32">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N32">
         <v>186</v>
@@ -3765,10 +3774,10 @@
         <v>316</v>
       </c>
       <c r="R32">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="S32">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="T32">
         <v>232</v>
@@ -3777,10 +3786,10 @@
         <v>588</v>
       </c>
       <c r="V32">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W32">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="X32">
         <v>1241</v>
@@ -3795,16 +3804,16 @@
         <v>552</v>
       </c>
       <c r="AB32">
-        <v>10948</v>
+        <v>10944</v>
       </c>
       <c r="AC32">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AD32">
         <v>54</v>
       </c>
       <c r="AE32">
-        <v>11965</v>
+        <v>11960</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -3818,7 +3827,7 @@
         <v>64</v>
       </c>
       <c r="D33">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E33">
         <v>1002</v>
@@ -3827,7 +3836,7 @@
         <v>131</v>
       </c>
       <c r="G33">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="H33">
         <v>326</v>
@@ -3845,19 +3854,19 @@
         <v>95</v>
       </c>
       <c r="M33">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N33">
         <v>183</v>
       </c>
       <c r="O33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P33">
         <v>210</v>
       </c>
       <c r="Q33">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="R33">
         <v>782</v>
@@ -3872,16 +3881,16 @@
         <v>582</v>
       </c>
       <c r="V33">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="W33">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="X33">
         <v>1249</v>
       </c>
       <c r="Y33">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="Z33">
         <v>1333</v>
@@ -3890,16 +3899,16 @@
         <v>554</v>
       </c>
       <c r="AB33">
-        <v>10831</v>
+        <v>10828</v>
       </c>
       <c r="AC33">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AD33">
         <v>51</v>
       </c>
       <c r="AE33">
-        <v>11848</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -3922,13 +3931,13 @@
         <v>135</v>
       </c>
       <c r="G34">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H34">
         <v>335</v>
       </c>
       <c r="I34">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J34">
         <v>29</v>
@@ -3940,7 +3949,7 @@
         <v>99</v>
       </c>
       <c r="M34">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N34">
         <v>186</v>
@@ -3955,10 +3964,10 @@
         <v>336</v>
       </c>
       <c r="R34">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S34">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="T34">
         <v>231</v>
@@ -3967,7 +3976,7 @@
         <v>594</v>
       </c>
       <c r="V34">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W34">
         <v>620</v>
@@ -3985,16 +3994,16 @@
         <v>556</v>
       </c>
       <c r="AB34">
-        <v>11012</v>
+        <v>11007</v>
       </c>
       <c r="AC34">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AD34">
         <v>48</v>
       </c>
       <c r="AE34">
-        <v>12030</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -4017,7 +4026,7 @@
         <v>137</v>
       </c>
       <c r="G35">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H35">
         <v>335</v>
@@ -4035,7 +4044,7 @@
         <v>99</v>
       </c>
       <c r="M35">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N35">
         <v>186</v>
@@ -4053,7 +4062,7 @@
         <v>779</v>
       </c>
       <c r="S35">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="T35">
         <v>230</v>
@@ -4074,7 +4083,7 @@
         <v>887</v>
       </c>
       <c r="Z35">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="AA35">
         <v>559</v>
@@ -4083,13 +4092,13 @@
         <v>11045</v>
       </c>
       <c r="AC35">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="AD35">
         <v>58</v>
       </c>
       <c r="AE35">
-        <v>12073</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -4097,7 +4106,7 @@
         <v>65</v>
       </c>
       <c r="B36">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36">
         <v>58</v>
@@ -4112,13 +4121,13 @@
         <v>137</v>
       </c>
       <c r="G36">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="H36">
         <v>332</v>
       </c>
       <c r="I36">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J36">
         <v>30</v>
@@ -4130,7 +4139,7 @@
         <v>98</v>
       </c>
       <c r="M36">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N36">
         <v>181</v>
@@ -4139,7 +4148,7 @@
         <v>75</v>
       </c>
       <c r="P36">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>344</v>
@@ -4148,10 +4157,10 @@
         <v>778</v>
       </c>
       <c r="S36">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="T36">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U36">
         <v>600</v>
@@ -4169,22 +4178,22 @@
         <v>883</v>
       </c>
       <c r="Z36">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="AA36">
         <v>560</v>
       </c>
       <c r="AB36">
-        <v>11026</v>
+        <v>11023</v>
       </c>
       <c r="AC36">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="AD36">
         <v>52</v>
       </c>
       <c r="AE36">
-        <v>12044</v>
+        <v>12039</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -4207,7 +4216,7 @@
         <v>142</v>
       </c>
       <c r="G37">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="H37">
         <v>328</v>
@@ -4225,40 +4234,40 @@
         <v>103</v>
       </c>
       <c r="M37">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N37">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O37">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37">
         <v>206</v>
       </c>
       <c r="Q37">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="R37">
         <v>776</v>
       </c>
       <c r="S37">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="T37">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="U37">
         <v>598</v>
       </c>
       <c r="V37">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="W37">
         <v>631</v>
       </c>
       <c r="X37">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="Y37">
         <v>882</v>
@@ -4270,16 +4279,16 @@
         <v>562</v>
       </c>
       <c r="AB37">
-        <v>11043</v>
+        <v>11038</v>
       </c>
       <c r="AC37">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AD37">
         <v>55</v>
       </c>
       <c r="AE37">
-        <v>12076</v>
+        <v>12070</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -4308,7 +4317,7 @@
         <v>332</v>
       </c>
       <c r="I38">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J38">
         <v>30</v>
@@ -4320,13 +4329,13 @@
         <v>105</v>
       </c>
       <c r="M38">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N38">
         <v>184</v>
       </c>
       <c r="O38">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P38">
         <v>207</v>
@@ -4335,13 +4344,13 @@
         <v>324</v>
       </c>
       <c r="R38">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="S38">
         <v>1102</v>
       </c>
       <c r="T38">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U38">
         <v>606</v>
@@ -4350,10 +4359,10 @@
         <v>402</v>
       </c>
       <c r="W38">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="X38">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="Y38">
         <v>873</v>
@@ -4365,10 +4374,10 @@
         <v>564</v>
       </c>
       <c r="AB38">
-        <v>11089</v>
+        <v>11090</v>
       </c>
       <c r="AC38">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AD38">
         <v>39</v>
@@ -4388,19 +4397,19 @@
         <v>61</v>
       </c>
       <c r="D39">
-        <v>1309</v>
+        <v>1313</v>
       </c>
       <c r="E39">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="F39">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G39">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="H39">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I39">
         <v>172</v>
@@ -4415,19 +4424,19 @@
         <v>96</v>
       </c>
       <c r="M39">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N39">
         <v>196</v>
       </c>
       <c r="O39">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P39">
         <v>205</v>
       </c>
       <c r="Q39">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="R39">
         <v>770</v>
@@ -4445,7 +4454,7 @@
         <v>400</v>
       </c>
       <c r="W39">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="X39">
         <v>1234</v>
@@ -4454,7 +4463,7 @@
         <v>882</v>
       </c>
       <c r="Z39">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="AA39">
         <v>567</v>
@@ -4463,13 +4472,13 @@
         <v>11148</v>
       </c>
       <c r="AC39">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AD39">
         <v>52</v>
       </c>
       <c r="AE39">
-        <v>12176</v>
+        <v>12174</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -4480,19 +4489,19 @@
         <v>372</v>
       </c>
       <c r="C40">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="E40">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F40">
         <v>140</v>
       </c>
       <c r="G40">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="H40">
         <v>321</v>
@@ -4510,7 +4519,7 @@
         <v>102</v>
       </c>
       <c r="M40">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N40">
         <v>189</v>
@@ -4528,10 +4537,10 @@
         <v>771</v>
       </c>
       <c r="S40">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="T40">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U40">
         <v>606</v>
@@ -4540,31 +4549,31 @@
         <v>401</v>
       </c>
       <c r="W40">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="X40">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="Y40">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="Z40">
         <v>1387</v>
       </c>
       <c r="AA40">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AB40">
-        <v>11138</v>
+        <v>11134</v>
       </c>
       <c r="AC40">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AD40">
         <v>50</v>
       </c>
       <c r="AE40">
-        <v>12157</v>
+        <v>12153</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -4578,22 +4587,22 @@
         <v>45</v>
       </c>
       <c r="D41">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E41">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F41">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G41">
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="H41">
         <v>315</v>
       </c>
       <c r="I41">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J41">
         <v>30</v>
@@ -4605,13 +4614,13 @@
         <v>96</v>
       </c>
       <c r="M41">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="N41">
         <v>189</v>
       </c>
       <c r="O41">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P41">
         <v>204</v>
@@ -4620,10 +4629,10 @@
         <v>328</v>
       </c>
       <c r="R41">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="S41">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="T41">
         <v>230</v>
@@ -4650,16 +4659,16 @@
         <v>567</v>
       </c>
       <c r="AB41">
-        <v>11052</v>
+        <v>11065</v>
       </c>
       <c r="AC41">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="AD41">
         <v>38</v>
       </c>
       <c r="AE41">
-        <v>12069</v>
+        <v>12089</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -4673,22 +4682,22 @@
         <v>61</v>
       </c>
       <c r="D42">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E42">
         <v>1155</v>
       </c>
       <c r="F42">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42">
-        <v>1216</v>
+        <v>1223</v>
       </c>
       <c r="H42">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I42">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J42">
         <v>30</v>
@@ -4700,13 +4709,13 @@
         <v>96</v>
       </c>
       <c r="M42">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="N42">
         <v>181</v>
       </c>
       <c r="O42">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P42">
         <v>201</v>
@@ -4715,13 +4724,13 @@
         <v>319</v>
       </c>
       <c r="R42">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S42">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="T42">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U42">
         <v>608</v>
@@ -4733,7 +4742,7 @@
         <v>640</v>
       </c>
       <c r="X42">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="Y42">
         <v>888</v>
@@ -4745,7 +4754,7 @@
         <v>567</v>
       </c>
       <c r="AB42">
-        <v>11064</v>
+        <v>11076</v>
       </c>
       <c r="AC42">
         <v>959</v>
@@ -4754,7 +4763,7 @@
         <v>43</v>
       </c>
       <c r="AE42">
-        <v>12064</v>
+        <v>12077</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -4768,22 +4777,22 @@
         <v>72</v>
       </c>
       <c r="D43">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E43">
         <v>1120</v>
       </c>
       <c r="F43">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H43">
         <v>336</v>
       </c>
       <c r="I43">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43">
         <v>30</v>
@@ -4801,19 +4810,19 @@
         <v>183</v>
       </c>
       <c r="O43">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P43">
         <v>201</v>
       </c>
       <c r="Q43">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R43">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="S43">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="T43">
         <v>231</v>
@@ -4825,7 +4834,7 @@
         <v>402</v>
       </c>
       <c r="W43">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="X43">
         <v>1227</v>
@@ -4834,13 +4843,13 @@
         <v>889</v>
       </c>
       <c r="Z43">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AA43">
         <v>568</v>
       </c>
       <c r="AB43">
-        <v>11149</v>
+        <v>11138</v>
       </c>
       <c r="AC43">
         <v>974</v>
@@ -4849,7 +4858,7 @@
         <v>63</v>
       </c>
       <c r="AE43">
-        <v>12187</v>
+        <v>12175</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -4863,7 +4872,7 @@
         <v>55</v>
       </c>
       <c r="D44">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E44">
         <v>1105</v>
@@ -4872,7 +4881,7 @@
         <v>137</v>
       </c>
       <c r="G44">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H44">
         <v>322</v>
@@ -4905,13 +4914,13 @@
         <v>317</v>
       </c>
       <c r="R44">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="S44">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="T44">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U44">
         <v>614</v>
@@ -4920,7 +4929,7 @@
         <v>405</v>
       </c>
       <c r="W44">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="X44">
         <v>1222</v>
@@ -4929,22 +4938,22 @@
         <v>888</v>
       </c>
       <c r="Z44">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="AA44">
         <v>569</v>
       </c>
       <c r="AB44">
-        <v>11102</v>
+        <v>11096</v>
       </c>
       <c r="AC44">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AD44">
         <v>49</v>
       </c>
       <c r="AE44">
-        <v>12131</v>
+        <v>12126</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -4958,22 +4967,22 @@
         <v>51</v>
       </c>
       <c r="D45">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E45">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F45">
         <v>134</v>
       </c>
       <c r="G45">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H45">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="I45">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J45">
         <v>31</v>
@@ -4982,10 +4991,10 @@
         <v>69</v>
       </c>
       <c r="L45">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M45">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N45">
         <v>184</v>
@@ -5000,10 +5009,10 @@
         <v>320</v>
       </c>
       <c r="R45">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S45">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="T45">
         <v>238</v>
@@ -5015,7 +5024,7 @@
         <v>410</v>
       </c>
       <c r="W45">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="X45">
         <v>1230</v>
@@ -5030,7 +5039,7 @@
         <v>570</v>
       </c>
       <c r="AB45">
-        <v>11119</v>
+        <v>11113</v>
       </c>
       <c r="AC45">
         <v>981</v>
@@ -5039,7 +5048,7 @@
         <v>58</v>
       </c>
       <c r="AE45">
-        <v>12158</v>
+        <v>12152</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -5059,10 +5068,10 @@
         <v>1083</v>
       </c>
       <c r="F46">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H46">
         <v>327</v>
@@ -5077,10 +5086,10 @@
         <v>72</v>
       </c>
       <c r="L46">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M46">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N46">
         <v>187</v>
@@ -5095,10 +5104,10 @@
         <v>316</v>
       </c>
       <c r="R46">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S46">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="T46">
         <v>238</v>
@@ -5110,7 +5119,7 @@
         <v>406</v>
       </c>
       <c r="W46">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="X46">
         <v>1209</v>
@@ -5119,13 +5128,13 @@
         <v>892</v>
       </c>
       <c r="Z46">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="AA46">
         <v>570</v>
       </c>
       <c r="AB46">
-        <v>11142</v>
+        <v>11137</v>
       </c>
       <c r="AC46">
         <v>988</v>
@@ -5134,7 +5143,7 @@
         <v>70</v>
       </c>
       <c r="AE46">
-        <v>12202</v>
+        <v>12196</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -5175,10 +5184,10 @@
         <v>101</v>
       </c>
       <c r="M47">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N47">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O47">
         <v>73</v>
@@ -5214,22 +5223,22 @@
         <v>897</v>
       </c>
       <c r="Z47">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="AA47">
         <v>571</v>
       </c>
       <c r="AB47">
-        <v>11124</v>
+        <v>11125</v>
       </c>
       <c r="AC47">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AD47">
         <v>73</v>
       </c>
       <c r="AE47">
-        <v>12189</v>
+        <v>12188</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -5249,16 +5258,16 @@
         <v>1118</v>
       </c>
       <c r="F48">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G48">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H48">
         <v>331</v>
       </c>
       <c r="I48">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J48">
         <v>32</v>
@@ -5270,7 +5279,7 @@
         <v>103</v>
       </c>
       <c r="M48">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N48">
         <v>187</v>
@@ -5282,16 +5291,16 @@
         <v>208</v>
       </c>
       <c r="Q48">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="R48">
         <v>799</v>
       </c>
       <c r="S48">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="T48">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="U48">
         <v>613</v>
@@ -5300,7 +5309,7 @@
         <v>407</v>
       </c>
       <c r="W48">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="X48">
         <v>1215</v>
@@ -5309,22 +5318,22 @@
         <v>895</v>
       </c>
       <c r="Z48">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="AA48">
         <v>571</v>
       </c>
       <c r="AB48">
-        <v>11179</v>
+        <v>11176</v>
       </c>
       <c r="AC48">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="AD48">
         <v>65</v>
       </c>
       <c r="AE48">
-        <v>12237</v>
+        <v>12232</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -5338,7 +5347,7 @@
         <v>58</v>
       </c>
       <c r="D49">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E49">
         <v>1065</v>
@@ -5347,13 +5356,13 @@
         <v>132</v>
       </c>
       <c r="G49">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="H49">
         <v>335</v>
       </c>
       <c r="I49">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J49">
         <v>32</v>
@@ -5365,7 +5374,7 @@
         <v>101</v>
       </c>
       <c r="M49">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N49">
         <v>188</v>
@@ -5377,13 +5386,13 @@
         <v>209</v>
       </c>
       <c r="Q49">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R49">
         <v>780</v>
       </c>
       <c r="S49">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="T49">
         <v>239</v>
@@ -5398,28 +5407,28 @@
         <v>633</v>
       </c>
       <c r="X49">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="Y49">
         <v>899</v>
       </c>
       <c r="Z49">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="AA49">
         <v>572</v>
       </c>
       <c r="AB49">
-        <v>11117</v>
+        <v>11112</v>
       </c>
       <c r="AC49">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AD49">
         <v>43</v>
       </c>
       <c r="AE49">
-        <v>12155</v>
+        <v>12148</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -5433,7 +5442,7 @@
         <v>58</v>
       </c>
       <c r="D50">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E50">
         <v>1111</v>
@@ -5442,7 +5451,7 @@
         <v>125</v>
       </c>
       <c r="G50">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="H50">
         <v>328</v>
@@ -5460,13 +5469,13 @@
         <v>99</v>
       </c>
       <c r="M50">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N50">
         <v>179</v>
       </c>
       <c r="O50">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P50">
         <v>206</v>
@@ -5475,13 +5484,13 @@
         <v>334</v>
       </c>
       <c r="R50">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="S50">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="T50">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U50">
         <v>615</v>
@@ -5490,10 +5499,10 @@
         <v>409</v>
       </c>
       <c r="W50">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="X50">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="Y50">
         <v>895</v>
@@ -5505,16 +5514,16 @@
         <v>572</v>
       </c>
       <c r="AB50">
-        <v>11112</v>
+        <v>11114</v>
       </c>
       <c r="AC50">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AD50">
         <v>62</v>
       </c>
       <c r="AE50">
-        <v>12171</v>
+        <v>12170</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -5528,22 +5537,22 @@
         <v>87</v>
       </c>
       <c r="D51">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="E51">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="F51">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G51">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="H51">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I51">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J51">
         <v>32</v>
@@ -5555,22 +5564,22 @@
         <v>99</v>
       </c>
       <c r="M51">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N51">
         <v>179</v>
       </c>
       <c r="O51">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P51">
         <v>207</v>
       </c>
       <c r="Q51">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R51">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="S51">
         <v>1121</v>
@@ -5579,37 +5588,37 @@
         <v>237</v>
       </c>
       <c r="U51">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="V51">
         <v>410</v>
       </c>
       <c r="W51">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="X51">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Y51">
         <v>903</v>
       </c>
       <c r="Z51">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="AA51">
         <v>574</v>
       </c>
       <c r="AB51">
-        <v>11034</v>
+        <v>11036</v>
       </c>
       <c r="AC51">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AD51">
         <v>48</v>
       </c>
       <c r="AE51">
-        <v>12087</v>
+        <v>12088</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -5620,7 +5629,7 @@
         <v>350</v>
       </c>
       <c r="C52">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52">
         <v>1024</v>
@@ -5632,10 +5641,10 @@
         <v>134</v>
       </c>
       <c r="G52">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H52">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I52">
         <v>160</v>
@@ -5650,43 +5659,43 @@
         <v>93</v>
       </c>
       <c r="M52">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N52">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O52">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P52">
         <v>209</v>
       </c>
       <c r="Q52">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R52">
         <v>760</v>
       </c>
       <c r="S52">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="T52">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U52">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="V52">
         <v>404</v>
       </c>
       <c r="W52">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="X52">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="Y52">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Z52">
         <v>1421</v>
@@ -5695,16 +5704,16 @@
         <v>575</v>
       </c>
       <c r="AB52">
-        <v>10942</v>
+        <v>10940</v>
       </c>
       <c r="AC52">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AD52">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE52">
-        <v>12012</v>
+        <v>12009</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -5715,25 +5724,25 @@
         <v>351</v>
       </c>
       <c r="C53">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E53">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F53">
         <v>130</v>
       </c>
       <c r="G53">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="H53">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I53">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J53">
         <v>31</v>
@@ -5742,10 +5751,10 @@
         <v>68</v>
       </c>
       <c r="L53">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M53">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N53">
         <v>181</v>
@@ -5760,10 +5769,10 @@
         <v>331</v>
       </c>
       <c r="R53">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="S53">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="T53">
         <v>235</v>
@@ -5775,31 +5784,31 @@
         <v>411</v>
       </c>
       <c r="W53">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="X53">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="Y53">
         <v>906</v>
       </c>
       <c r="Z53">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="AA53">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB53">
-        <v>11089</v>
+        <v>11106</v>
       </c>
       <c r="AC53">
-        <v>991</v>
+        <v>1000</v>
       </c>
       <c r="AD53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE53">
-        <v>12132</v>
+        <v>12156</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -5807,13 +5816,13 @@
         <v>83</v>
       </c>
       <c r="B54">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54">
         <v>65</v>
       </c>
       <c r="D54">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="E54">
         <v>1112</v>
@@ -5822,13 +5831,13 @@
         <v>122</v>
       </c>
       <c r="G54">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="H54">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I54">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J54">
         <v>31</v>
@@ -5840,13 +5849,13 @@
         <v>100</v>
       </c>
       <c r="M54">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="N54">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O54">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P54">
         <v>211</v>
@@ -5855,13 +5864,13 @@
         <v>334</v>
       </c>
       <c r="R54">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="S54">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="T54">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U54">
         <v>614</v>
@@ -5870,13 +5879,13 @@
         <v>413</v>
       </c>
       <c r="W54">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="X54">
-        <v>1188</v>
+        <v>1193</v>
       </c>
       <c r="Y54">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="Z54">
         <v>1422</v>
@@ -5885,16 +5894,16 @@
         <v>578</v>
       </c>
       <c r="AB54">
-        <v>11154</v>
+        <v>11168</v>
       </c>
       <c r="AC54">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="AD54">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE54">
-        <v>12201</v>
+        <v>12217</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -5908,7 +5917,7 @@
         <v>67</v>
       </c>
       <c r="D55">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E55">
         <v>1107</v>
@@ -5917,13 +5926,13 @@
         <v>118</v>
       </c>
       <c r="G55">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H55">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I55">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J55">
         <v>30</v>
@@ -5941,55 +5950,55 @@
         <v>182</v>
       </c>
       <c r="O55">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P55">
         <v>213</v>
       </c>
       <c r="Q55">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="R55">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="S55">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="T55">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U55">
         <v>618</v>
       </c>
       <c r="V55">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W55">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="X55">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="Y55">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="Z55">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="AA55">
         <v>579</v>
       </c>
       <c r="AB55">
-        <v>11211</v>
+        <v>11194</v>
       </c>
       <c r="AC55">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AD55">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE55">
-        <v>12292</v>
+        <v>12273</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -6003,22 +6012,22 @@
         <v>67</v>
       </c>
       <c r="D56">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E56">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F56">
         <v>131</v>
       </c>
       <c r="G56">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="H56">
         <v>345</v>
       </c>
       <c r="I56">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J56">
         <v>29</v>
@@ -6030,7 +6039,7 @@
         <v>99</v>
       </c>
       <c r="M56">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N56">
         <v>188</v>
@@ -6042,10 +6051,10 @@
         <v>216</v>
       </c>
       <c r="Q56">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R56">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="S56">
         <v>1154</v>
@@ -6060,13 +6069,13 @@
         <v>419</v>
       </c>
       <c r="W56">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X56">
         <v>1222</v>
       </c>
       <c r="Y56">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="Z56">
         <v>1435</v>
@@ -6075,16 +6084,16 @@
         <v>579</v>
       </c>
       <c r="AB56">
-        <v>11330</v>
+        <v>11322</v>
       </c>
       <c r="AC56">
         <v>1015</v>
       </c>
       <c r="AD56">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE56">
-        <v>12393</v>
+        <v>12385</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -6098,22 +6107,22 @@
         <v>69</v>
       </c>
       <c r="D57">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E57">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F57">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G57">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H57">
         <v>358</v>
       </c>
       <c r="I57">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J57">
         <v>31</v>
@@ -6125,7 +6134,7 @@
         <v>102</v>
       </c>
       <c r="M57">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N57">
         <v>183</v>
@@ -6140,10 +6149,10 @@
         <v>337</v>
       </c>
       <c r="R57">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="S57">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="T57">
         <v>244</v>
@@ -6152,10 +6161,10 @@
         <v>626</v>
       </c>
       <c r="V57">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W57">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="X57">
         <v>1212</v>
@@ -6167,19 +6176,19 @@
         <v>1440</v>
       </c>
       <c r="AA57">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AB57">
-        <v>11346</v>
+        <v>11337</v>
       </c>
       <c r="AC57">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="AD57">
         <v>65</v>
       </c>
       <c r="AE57">
-        <v>12428</v>
+        <v>12421</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -6187,7 +6196,7 @@
         <v>87</v>
       </c>
       <c r="B58">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C58">
         <v>68</v>
@@ -6196,13 +6205,13 @@
         <v>1291</v>
       </c>
       <c r="E58">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="F58">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G58">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="H58">
         <v>368</v>
@@ -6217,10 +6226,10 @@
         <v>70</v>
       </c>
       <c r="L58">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M58">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N58">
         <v>179</v>
@@ -6232,40 +6241,40 @@
         <v>223</v>
       </c>
       <c r="Q58">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R58">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="S58">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="T58">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U58">
         <v>630</v>
       </c>
       <c r="V58">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W58">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X58">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="Y58">
         <v>923</v>
       </c>
       <c r="Z58">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="AA58">
         <v>580</v>
       </c>
       <c r="AB58">
-        <v>11427</v>
+        <v>11420</v>
       </c>
       <c r="AC58">
         <v>1025</v>
@@ -6274,7 +6283,7 @@
         <v>52</v>
       </c>
       <c r="AE58">
-        <v>12504</v>
+        <v>12497</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -6288,7 +6297,7 @@
         <v>65</v>
       </c>
       <c r="D59">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E59">
         <v>1224</v>
@@ -6297,7 +6306,7 @@
         <v>130</v>
       </c>
       <c r="G59">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="H59">
         <v>354</v>
@@ -6315,7 +6324,7 @@
         <v>94</v>
       </c>
       <c r="M59">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N59">
         <v>177</v>
@@ -6327,16 +6336,16 @@
         <v>218</v>
       </c>
       <c r="Q59">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="R59">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="S59">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="T59">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U59">
         <v>621</v>
@@ -6348,28 +6357,28 @@
         <v>643</v>
       </c>
       <c r="X59">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Y59">
         <v>937</v>
       </c>
       <c r="Z59">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="AA59">
         <v>581</v>
       </c>
       <c r="AB59">
-        <v>11439</v>
+        <v>11440</v>
       </c>
       <c r="AC59">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="AD59">
         <v>51</v>
       </c>
       <c r="AE59">
-        <v>12512</v>
+        <v>12511</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -6377,7 +6386,7 @@
         <v>89</v>
       </c>
       <c r="B60">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C60">
         <v>63</v>
@@ -6389,16 +6398,16 @@
         <v>1182</v>
       </c>
       <c r="F60">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G60">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H60">
         <v>356</v>
       </c>
       <c r="I60">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J60">
         <v>32</v>
@@ -6410,7 +6419,7 @@
         <v>96</v>
       </c>
       <c r="M60">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N60">
         <v>190</v>
@@ -6428,19 +6437,19 @@
         <v>779</v>
       </c>
       <c r="S60">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="T60">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U60">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="V60">
         <v>430</v>
       </c>
       <c r="W60">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X60">
         <v>1210</v>
@@ -6449,22 +6458,22 @@
         <v>933</v>
       </c>
       <c r="Z60">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="AA60">
         <v>581</v>
       </c>
       <c r="AB60">
-        <v>11475</v>
+        <v>11473</v>
       </c>
       <c r="AC60">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AD60">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE60">
-        <v>12595</v>
+        <v>12591</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -6481,19 +6490,19 @@
         <v>1251</v>
       </c>
       <c r="E61">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F61">
         <v>125</v>
       </c>
       <c r="G61">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H61">
         <v>356</v>
       </c>
       <c r="I61">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J61">
         <v>31</v>
@@ -6505,7 +6514,7 @@
         <v>96</v>
       </c>
       <c r="M61">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N61">
         <v>190</v>
@@ -6517,16 +6526,16 @@
         <v>223</v>
       </c>
       <c r="Q61">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R61">
         <v>779</v>
       </c>
       <c r="S61">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T61">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="U61">
         <v>622</v>
@@ -6535,13 +6544,13 @@
         <v>437</v>
       </c>
       <c r="W61">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="X61">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="Y61">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="Z61">
         <v>1482</v>
@@ -6550,16 +6559,16 @@
         <v>581</v>
       </c>
       <c r="AB61">
-        <v>11434</v>
+        <v>11429</v>
       </c>
       <c r="AC61">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AD61">
         <v>66</v>
       </c>
       <c r="AE61">
-        <v>12540</v>
+        <v>12533</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -6573,22 +6582,22 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="E62">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F62">
         <v>128</v>
       </c>
       <c r="G62">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="H62">
         <v>360</v>
       </c>
       <c r="I62">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J62">
         <v>33</v>
@@ -6600,28 +6609,28 @@
         <v>101</v>
       </c>
       <c r="M62">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N62">
         <v>179</v>
       </c>
       <c r="O62">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P62">
         <v>219</v>
       </c>
       <c r="Q62">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R62">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="S62">
         <v>1173</v>
       </c>
       <c r="T62">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U62">
         <v>621</v>
@@ -6630,31 +6639,31 @@
         <v>437</v>
       </c>
       <c r="W62">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="X62">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Y62">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="Z62">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="AA62">
         <v>579</v>
       </c>
       <c r="AB62">
-        <v>11559</v>
+        <v>11564</v>
       </c>
       <c r="AC62">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="AD62">
         <v>47</v>
       </c>
       <c r="AE62">
-        <v>12647</v>
+        <v>12649</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -6668,22 +6677,22 @@
         <v>63</v>
       </c>
       <c r="D63">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="E63">
-        <v>1229</v>
+        <v>1234</v>
       </c>
       <c r="F63">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G63">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="H63">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I63">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>35</v>
@@ -6695,28 +6704,28 @@
         <v>102</v>
       </c>
       <c r="M63">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N63">
         <v>179</v>
       </c>
       <c r="O63">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P63">
         <v>221</v>
       </c>
       <c r="Q63">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="R63">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="S63">
         <v>1168</v>
       </c>
       <c r="T63">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U63">
         <v>609</v>
@@ -6725,31 +6734,31 @@
         <v>436</v>
       </c>
       <c r="W63">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="X63">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="Y63">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="Z63">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="AA63">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AB63">
-        <v>11568</v>
+        <v>11576</v>
       </c>
       <c r="AC63">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AD63">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE63">
-        <v>12677</v>
+        <v>12683</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -6757,7 +6766,7 @@
         <v>93</v>
       </c>
       <c r="B64">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C64">
         <v>75</v>
@@ -6772,10 +6781,10 @@
         <v>130</v>
       </c>
       <c r="G64">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="H64">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I64">
         <v>180</v>
@@ -6790,61 +6799,61 @@
         <v>89</v>
       </c>
       <c r="M64">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N64">
         <v>183</v>
       </c>
       <c r="O64">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P64">
         <v>222</v>
       </c>
       <c r="Q64">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R64">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="S64">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="T64">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U64">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="V64">
         <v>439</v>
       </c>
       <c r="W64">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="X64">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="Y64">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Z64">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="AA64">
         <v>580</v>
       </c>
       <c r="AB64">
-        <v>11626</v>
+        <v>11625</v>
       </c>
       <c r="AC64">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AD64">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE64">
-        <v>12725</v>
+        <v>12723</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -6852,46 +6861,46 @@
         <v>94</v>
       </c>
       <c r="B65">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C65">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D65">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E65">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F65">
         <v>121</v>
       </c>
       <c r="G65">
-        <v>1352</v>
+        <v>1356</v>
       </c>
       <c r="H65">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I65">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J65">
         <v>33</v>
       </c>
       <c r="K65">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L65">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M65">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N65">
         <v>193</v>
       </c>
       <c r="O65">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P65">
         <v>221</v>
@@ -6900,13 +6909,13 @@
         <v>365</v>
       </c>
       <c r="R65">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="S65">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="T65">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U65">
         <v>624</v>
@@ -6915,31 +6924,31 @@
         <v>447</v>
       </c>
       <c r="W65">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="X65">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="Y65">
         <v>950</v>
       </c>
       <c r="Z65">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="AA65">
         <v>581</v>
       </c>
       <c r="AB65">
-        <v>11670</v>
+        <v>11692</v>
       </c>
       <c r="AC65">
-        <v>1039</v>
+        <v>1048</v>
       </c>
       <c r="AD65">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE65">
-        <v>12770</v>
+        <v>12799</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -6947,94 +6956,94 @@
         <v>95</v>
       </c>
       <c r="B66">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C66">
         <v>74</v>
       </c>
       <c r="D66">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E66">
         <v>1175</v>
       </c>
       <c r="F66">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G66">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="H66">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="I66">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J66">
         <v>31</v>
       </c>
       <c r="K66">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L66">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M66">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="N66">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O66">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P66">
         <v>220</v>
       </c>
       <c r="Q66">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R66">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="S66">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="T66">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="U66">
         <v>641</v>
       </c>
       <c r="V66">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W66">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X66">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="Y66">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="Z66">
         <v>1496</v>
       </c>
       <c r="AA66">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AB66">
-        <v>11671</v>
+        <v>11682</v>
       </c>
       <c r="AC66">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="AD66">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE66">
-        <v>12791</v>
+        <v>12809</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -7042,28 +7051,28 @@
         <v>96</v>
       </c>
       <c r="B67">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C67">
         <v>73</v>
       </c>
       <c r="D67">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E67">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F67">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G67">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="H67">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I67">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J67">
         <v>32</v>
@@ -7075,25 +7084,25 @@
         <v>103</v>
       </c>
       <c r="M67">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N67">
         <v>193</v>
       </c>
       <c r="O67">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P67">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q67">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="R67">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="S67">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="T67">
         <v>242</v>
@@ -7102,34 +7111,34 @@
         <v>637</v>
       </c>
       <c r="V67">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W67">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="X67">
         <v>1222</v>
       </c>
       <c r="Y67">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="Z67">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="AA67">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AB67">
-        <v>11672</v>
+        <v>11645</v>
       </c>
       <c r="AC67">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AD67">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE67">
-        <v>12808</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -7143,22 +7152,22 @@
         <v>71</v>
       </c>
       <c r="D68">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E68">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="F68">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G68">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="H68">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I68">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J68">
         <v>31</v>
@@ -7170,28 +7179,28 @@
         <v>101</v>
       </c>
       <c r="M68">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N68">
         <v>188</v>
       </c>
       <c r="O68">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P68">
         <v>215</v>
       </c>
       <c r="Q68">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R68">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="S68">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="T68">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U68">
         <v>639</v>
@@ -7200,13 +7209,13 @@
         <v>445</v>
       </c>
       <c r="W68">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="X68">
         <v>1219</v>
       </c>
       <c r="Y68">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="Z68">
         <v>1504</v>
@@ -7215,16 +7224,16 @@
         <v>585</v>
       </c>
       <c r="AB68">
-        <v>11678</v>
+        <v>11662</v>
       </c>
       <c r="AC68">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="AD68">
         <v>69</v>
       </c>
       <c r="AE68">
-        <v>12804</v>
+        <v>12790</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -7238,22 +7247,22 @@
         <v>79</v>
       </c>
       <c r="D69">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E69">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F69">
         <v>123</v>
       </c>
       <c r="G69">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="H69">
         <v>358</v>
       </c>
       <c r="I69">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J69">
         <v>31</v>
@@ -7265,28 +7274,28 @@
         <v>102</v>
       </c>
       <c r="M69">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N69">
         <v>194</v>
       </c>
       <c r="O69">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P69">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q69">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R69">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="S69">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="T69">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U69">
         <v>633</v>
@@ -7295,13 +7304,13 @@
         <v>452</v>
       </c>
       <c r="W69">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="X69">
         <v>1226</v>
       </c>
       <c r="Y69">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="Z69">
         <v>1496</v>
@@ -7310,16 +7319,16 @@
         <v>585</v>
       </c>
       <c r="AB69">
-        <v>11583</v>
+        <v>11572</v>
       </c>
       <c r="AC69">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="AD69">
         <v>55</v>
       </c>
       <c r="AE69">
-        <v>12697</v>
+        <v>12690</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -7327,7 +7336,7 @@
         <v>99</v>
       </c>
       <c r="B70">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C70">
         <v>74</v>
@@ -7342,25 +7351,25 @@
         <v>129</v>
       </c>
       <c r="G70">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="H70">
         <v>359</v>
       </c>
       <c r="I70">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J70">
         <v>31</v>
       </c>
       <c r="K70">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L70">
         <v>103</v>
       </c>
       <c r="M70">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N70">
         <v>193</v>
@@ -7369,16 +7378,16 @@
         <v>73</v>
       </c>
       <c r="P70">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>347</v>
       </c>
       <c r="R70">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="S70">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="T70">
         <v>248</v>
@@ -7390,31 +7399,31 @@
         <v>455</v>
       </c>
       <c r="W70">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X70">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Y70">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="Z70">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="AA70">
         <v>588</v>
       </c>
       <c r="AB70">
-        <v>11670</v>
+        <v>11662</v>
       </c>
       <c r="AC70">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AD70">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE70">
-        <v>12800</v>
+        <v>12792</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -7431,19 +7440,19 @@
         <v>1244</v>
       </c>
       <c r="E71">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F71">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G71">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="H71">
         <v>359</v>
       </c>
       <c r="I71">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J71">
         <v>32</v>
@@ -7455,7 +7464,7 @@
         <v>99</v>
       </c>
       <c r="M71">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N71">
         <v>198</v>
@@ -7467,22 +7476,22 @@
         <v>217</v>
       </c>
       <c r="Q71">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="R71">
         <v>780</v>
       </c>
       <c r="S71">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="T71">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U71">
         <v>641</v>
       </c>
       <c r="V71">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W71">
         <v>686</v>
@@ -7494,22 +7503,22 @@
         <v>958</v>
       </c>
       <c r="Z71">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="AA71">
         <v>589</v>
       </c>
       <c r="AB71">
-        <v>11715</v>
+        <v>11718</v>
       </c>
       <c r="AC71">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="AD71">
         <v>64</v>
       </c>
       <c r="AE71">
-        <v>12854</v>
+        <v>12853</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -7526,22 +7535,22 @@
         <v>1391</v>
       </c>
       <c r="E72">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F72">
         <v>121</v>
       </c>
       <c r="G72">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="H72">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I72">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K72">
         <v>73</v>
@@ -7550,7 +7559,7 @@
         <v>99</v>
       </c>
       <c r="M72">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N72">
         <v>193</v>
@@ -7559,28 +7568,28 @@
         <v>71</v>
       </c>
       <c r="P72">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q72">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R72">
         <v>788</v>
       </c>
       <c r="S72">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="T72">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U72">
         <v>638</v>
       </c>
       <c r="V72">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W72">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="X72">
         <v>1233</v>
@@ -7589,22 +7598,22 @@
         <v>963</v>
       </c>
       <c r="Z72">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="AA72">
         <v>589</v>
       </c>
       <c r="AB72">
-        <v>11865</v>
+        <v>11866</v>
       </c>
       <c r="AC72">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AD72">
         <v>77</v>
       </c>
       <c r="AE72">
-        <v>13007</v>
+        <v>13006</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -7618,22 +7627,22 @@
         <v>71</v>
       </c>
       <c r="D73">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E73">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F73">
         <v>115</v>
       </c>
       <c r="G73">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H73">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I73">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J73">
         <v>29</v>
@@ -7642,64 +7651,64 @@
         <v>70</v>
       </c>
       <c r="L73">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M73">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N73">
         <v>193</v>
       </c>
       <c r="O73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P73">
         <v>214</v>
       </c>
       <c r="Q73">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R73">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S73">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="T73">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="U73">
         <v>637</v>
       </c>
       <c r="V73">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W73">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="X73">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="Y73">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="Z73">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="AA73">
         <v>589</v>
       </c>
       <c r="AB73">
-        <v>11737</v>
+        <v>11734</v>
       </c>
       <c r="AC73">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="AD73">
         <v>51</v>
       </c>
       <c r="AE73">
-        <v>12855</v>
+        <v>12848</v>
       </c>
     </row>
     <row r="74" spans="1:31">
@@ -7710,25 +7719,25 @@
         <v>370</v>
       </c>
       <c r="C74">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D74">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="E74">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="F74">
         <v>110</v>
       </c>
       <c r="G74">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="H74">
         <v>350</v>
       </c>
       <c r="I74">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J74">
         <v>31</v>
@@ -7737,64 +7746,64 @@
         <v>74</v>
       </c>
       <c r="L74">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M74">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N74">
         <v>198</v>
       </c>
       <c r="O74">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P74">
         <v>224</v>
       </c>
       <c r="Q74">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="R74">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="S74">
         <v>1193</v>
       </c>
       <c r="T74">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U74">
         <v>642</v>
       </c>
       <c r="V74">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W74">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="X74">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Y74">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Z74">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="AA74">
         <v>590</v>
       </c>
       <c r="AB74">
-        <v>11774</v>
+        <v>11782</v>
       </c>
       <c r="AC74">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="AD74">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE74">
-        <v>12904</v>
+        <v>12907</v>
       </c>
     </row>
     <row r="75" spans="1:31">
@@ -7808,22 +7817,22 @@
         <v>72</v>
       </c>
       <c r="D75">
-        <v>1187</v>
+        <v>1192</v>
       </c>
       <c r="E75">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="F75">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G75">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="H75">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I75">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J75">
         <v>33</v>
@@ -7835,28 +7844,28 @@
         <v>99</v>
       </c>
       <c r="M75">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="N75">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O75">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P75">
         <v>222</v>
       </c>
       <c r="Q75">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="R75">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="S75">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="T75">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U75">
         <v>633</v>
@@ -7865,31 +7874,31 @@
         <v>456</v>
       </c>
       <c r="W75">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="X75">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Y75">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="Z75">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="AA75">
         <v>591</v>
       </c>
       <c r="AB75">
-        <v>11661</v>
+        <v>11673</v>
       </c>
       <c r="AC75">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="AD75">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE75">
-        <v>12781</v>
+        <v>12789</v>
       </c>
     </row>
     <row r="76" spans="1:31">
@@ -7912,13 +7921,13 @@
         <v>113</v>
       </c>
       <c r="G76">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="H76">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I76">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J76">
         <v>33</v>
@@ -7930,61 +7939,61 @@
         <v>92</v>
       </c>
       <c r="M76">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N76">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O76">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P76">
         <v>229</v>
       </c>
       <c r="Q76">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="R76">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="S76">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="T76">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="U76">
         <v>652</v>
       </c>
       <c r="V76">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W76">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="X76">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="Y76">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="Z76">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="AA76">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB76">
-        <v>11777</v>
+        <v>11778</v>
       </c>
       <c r="AC76">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="AD76">
         <v>52</v>
       </c>
       <c r="AE76">
-        <v>12903</v>
+        <v>12902</v>
       </c>
     </row>
     <row r="77" spans="1:31">
@@ -7992,94 +8001,94 @@
         <v>106</v>
       </c>
       <c r="B77">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C77">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D77">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E77">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="F77">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G77">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="H77">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I77">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J77">
         <v>33</v>
       </c>
       <c r="K77">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L77">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M77">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="N77">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O77">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P77">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>352</v>
       </c>
       <c r="R77">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="S77">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="T77">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="U77">
         <v>660</v>
       </c>
       <c r="V77">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W77">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="X77">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="Y77">
         <v>964</v>
       </c>
       <c r="Z77">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="AA77">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AB77">
-        <v>11824</v>
+        <v>11853</v>
       </c>
       <c r="AC77">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="AD77">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE77">
-        <v>12959</v>
+        <v>12996</v>
       </c>
     </row>
     <row r="78" spans="1:31">
@@ -8087,10 +8096,10 @@
         <v>107</v>
       </c>
       <c r="B78">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C78">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78">
         <v>1223</v>
@@ -8099,82 +8108,82 @@
         <v>1112</v>
       </c>
       <c r="F78">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G78">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="H78">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I78">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J78">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K78">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L78">
         <v>102</v>
       </c>
       <c r="M78">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="N78">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O78">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P78">
         <v>229</v>
       </c>
       <c r="Q78">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R78">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="S78">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="T78">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="U78">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="V78">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W78">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="X78">
-        <v>1276</v>
+        <v>1285</v>
       </c>
       <c r="Y78">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="Z78">
         <v>1561</v>
       </c>
       <c r="AA78">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AB78">
-        <v>11889</v>
+        <v>11901</v>
       </c>
       <c r="AC78">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="AD78">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AE78">
-        <v>13036</v>
+        <v>13058</v>
       </c>
     </row>
     <row r="79" spans="1:31">
@@ -8182,34 +8191,34 @@
         <v>108</v>
       </c>
       <c r="B79">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D79">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="E79">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F79">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G79">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="H79">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I79">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J79">
         <v>32</v>
       </c>
       <c r="K79">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L79">
         <v>99</v>
@@ -8221,55 +8230,55 @@
         <v>193</v>
       </c>
       <c r="O79">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P79">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q79">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="R79">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="S79">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="T79">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="U79">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="V79">
         <v>465</v>
       </c>
       <c r="W79">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="X79">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="Y79">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="Z79">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="AA79">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AB79">
-        <v>11872</v>
+        <v>11836</v>
       </c>
       <c r="AC79">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AD79">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AE79">
-        <v>13005</v>
+        <v>12965</v>
       </c>
     </row>
     <row r="80" spans="1:31">
@@ -8283,25 +8292,25 @@
         <v>80</v>
       </c>
       <c r="D80">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E80">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F80">
         <v>124</v>
       </c>
       <c r="G80">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="H80">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I80">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J80">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K80">
         <v>71</v>
@@ -8310,43 +8319,43 @@
         <v>99</v>
       </c>
       <c r="M80">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N80">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O80">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P80">
         <v>226</v>
       </c>
       <c r="Q80">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="R80">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="S80">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="T80">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U80">
         <v>667</v>
       </c>
       <c r="V80">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="W80">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="X80">
         <v>1288</v>
       </c>
       <c r="Y80">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="Z80">
         <v>1496</v>
@@ -8355,16 +8364,16 @@
         <v>601</v>
       </c>
       <c r="AB80">
-        <v>11901</v>
+        <v>11878</v>
       </c>
       <c r="AC80">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="AD80">
         <v>51</v>
       </c>
       <c r="AE80">
-        <v>13038</v>
+        <v>13018</v>
       </c>
     </row>
     <row r="81" spans="1:31">
@@ -8372,22 +8381,22 @@
         <v>110</v>
       </c>
       <c r="B81">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C81">
         <v>73</v>
       </c>
       <c r="D81">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="E81">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="F81">
         <v>121</v>
       </c>
       <c r="G81">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="H81">
         <v>366</v>
@@ -8405,25 +8414,25 @@
         <v>103</v>
       </c>
       <c r="M81">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N81">
         <v>197</v>
       </c>
       <c r="O81">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P81">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q81">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="R81">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="S81">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="T81">
         <v>260</v>
@@ -8435,31 +8444,31 @@
         <v>466</v>
       </c>
       <c r="W81">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="X81">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="Y81">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="Z81">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="AA81">
         <v>603</v>
       </c>
       <c r="AB81">
-        <v>12022</v>
+        <v>12009</v>
       </c>
       <c r="AC81">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="AD81">
         <v>63</v>
       </c>
       <c r="AE81">
-        <v>13185</v>
+        <v>13180</v>
       </c>
     </row>
     <row r="82" spans="1:31">
@@ -8473,16 +8482,16 @@
         <v>74</v>
       </c>
       <c r="D82">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E82">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F82">
         <v>130</v>
       </c>
       <c r="G82">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="H82">
         <v>368</v>
@@ -8491,16 +8500,16 @@
         <v>165</v>
       </c>
       <c r="J82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K82">
         <v>70</v>
       </c>
       <c r="L82">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M82">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N82">
         <v>198</v>
@@ -8512,40 +8521,40 @@
         <v>229</v>
       </c>
       <c r="Q82">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R82">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="S82">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="T82">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U82">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="V82">
         <v>466</v>
       </c>
       <c r="W82">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="X82">
         <v>1292</v>
       </c>
       <c r="Y82">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="Z82">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="AA82">
         <v>603</v>
       </c>
       <c r="AB82">
-        <v>12006</v>
+        <v>11996</v>
       </c>
       <c r="AC82">
         <v>1086</v>
@@ -8554,7 +8563,7 @@
         <v>49</v>
       </c>
       <c r="AE82">
-        <v>13143</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="83" spans="1:31">
@@ -8562,7 +8571,7 @@
         <v>112</v>
       </c>
       <c r="B83">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C83">
         <v>65</v>
@@ -8577,13 +8586,13 @@
         <v>121</v>
       </c>
       <c r="G83">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="H83">
         <v>326</v>
       </c>
       <c r="I83">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J83">
         <v>27</v>
@@ -8595,55 +8604,55 @@
         <v>88</v>
       </c>
       <c r="M83">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N83">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O83">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P83">
         <v>216</v>
       </c>
       <c r="Q83">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="R83">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="S83">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="T83">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="U83">
         <v>593</v>
       </c>
       <c r="V83">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="W83">
         <v>713</v>
       </c>
       <c r="X83">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="Y83">
         <v>949</v>
       </c>
       <c r="Z83">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="AA83">
         <v>604</v>
       </c>
       <c r="AB83">
-        <v>11354</v>
+        <v>11359</v>
       </c>
       <c r="AC83">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="AD83">
         <v>54</v>
@@ -8663,22 +8672,22 @@
         <v>70</v>
       </c>
       <c r="D84">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="E84">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F84">
         <v>120</v>
       </c>
       <c r="G84">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="H84">
         <v>358</v>
       </c>
       <c r="I84">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J84">
         <v>26</v>
@@ -8690,61 +8699,61 @@
         <v>93</v>
       </c>
       <c r="M84">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N84">
         <v>199</v>
       </c>
       <c r="O84">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P84">
         <v>226</v>
       </c>
       <c r="Q84">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="R84">
         <v>819</v>
       </c>
       <c r="S84">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="T84">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="U84">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="V84">
         <v>454</v>
       </c>
       <c r="W84">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="X84">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="Y84">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="Z84">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="AA84">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AB84">
-        <v>11441</v>
+        <v>11445</v>
       </c>
       <c r="AC84">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="AD84">
         <v>54</v>
       </c>
       <c r="AE84">
-        <v>12512</v>
+        <v>12511</v>
       </c>
     </row>
     <row r="85" spans="1:31">
@@ -8752,28 +8761,28 @@
         <v>114</v>
       </c>
       <c r="B85">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C85">
         <v>83</v>
       </c>
       <c r="D85">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="E85">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F85">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G85">
         <v>1325</v>
       </c>
       <c r="H85">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I85">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>27</v>
@@ -8785,61 +8794,61 @@
         <v>93</v>
       </c>
       <c r="M85">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N85">
         <v>202</v>
       </c>
       <c r="O85">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P85">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q85">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="R85">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="S85">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="T85">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="U85">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="V85">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="W85">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="X85">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="Y85">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="Z85">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="AA85">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AB85">
-        <v>11779</v>
+        <v>11777</v>
       </c>
       <c r="AC85">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="AD85">
         <v>56</v>
       </c>
       <c r="AE85">
-        <v>12889</v>
+        <v>12882</v>
       </c>
     </row>
     <row r="86" spans="1:31">
@@ -8847,28 +8856,28 @@
         <v>115</v>
       </c>
       <c r="B86">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C86">
         <v>79</v>
       </c>
       <c r="D86">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="E86">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="F86">
         <v>142</v>
       </c>
       <c r="G86">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="H86">
         <v>368</v>
       </c>
       <c r="I86">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J86">
         <v>30</v>
@@ -8880,28 +8889,28 @@
         <v>93</v>
       </c>
       <c r="M86">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N86">
         <v>213</v>
       </c>
       <c r="O86">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P86">
         <v>234</v>
       </c>
       <c r="Q86">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="R86">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="S86">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="T86">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U86">
         <v>657</v>
@@ -8910,31 +8919,31 @@
         <v>457</v>
       </c>
       <c r="W86">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="X86">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="Y86">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="Z86">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="AA86">
         <v>614</v>
       </c>
       <c r="AB86">
-        <v>11922</v>
+        <v>11932</v>
       </c>
       <c r="AC86">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="AD86">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE86">
-        <v>13072</v>
+        <v>13078</v>
       </c>
     </row>
     <row r="87" spans="1:31">
@@ -8945,25 +8954,25 @@
         <v>362</v>
       </c>
       <c r="C87">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87">
-        <v>1291</v>
+        <v>1298</v>
       </c>
       <c r="E87">
-        <v>1158</v>
+        <v>1163</v>
       </c>
       <c r="F87">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G87">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="H87">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I87">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J87">
         <v>29</v>
@@ -8975,61 +8984,61 @@
         <v>100</v>
       </c>
       <c r="M87">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N87">
         <v>204</v>
       </c>
       <c r="O87">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P87">
         <v>231</v>
       </c>
       <c r="Q87">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="R87">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="S87">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="T87">
         <v>261</v>
       </c>
       <c r="U87">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="V87">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W87">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="X87">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="Y87">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="Z87">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="AA87">
         <v>616</v>
       </c>
       <c r="AB87">
-        <v>11959</v>
+        <v>11974</v>
       </c>
       <c r="AC87">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="AD87">
         <v>49</v>
       </c>
       <c r="AE87">
-        <v>13088</v>
+        <v>13097</v>
       </c>
     </row>
     <row r="88" spans="1:31">
@@ -9040,28 +9049,28 @@
         <v>359</v>
       </c>
       <c r="C88">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D88">
         <v>1271</v>
       </c>
       <c r="E88">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F88">
         <v>125</v>
       </c>
       <c r="G88">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="H88">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I88">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J88">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K88">
         <v>64</v>
@@ -9070,61 +9079,61 @@
         <v>93</v>
       </c>
       <c r="M88">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N88">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O88">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P88">
         <v>227</v>
       </c>
       <c r="Q88">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="R88">
         <v>834</v>
       </c>
       <c r="S88">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="T88">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U88">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="V88">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="W88">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="X88">
+        <v>1306</v>
+      </c>
+      <c r="Y88">
+        <v>958</v>
+      </c>
+      <c r="Z88">
         <v>1310</v>
-      </c>
-      <c r="Y88">
-        <v>959</v>
-      </c>
-      <c r="Z88">
-        <v>1314</v>
       </c>
       <c r="AA88">
         <v>616</v>
       </c>
       <c r="AB88">
-        <v>11371</v>
+        <v>11370</v>
       </c>
       <c r="AC88">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="AD88">
         <v>56</v>
       </c>
       <c r="AE88">
-        <v>12381</v>
+        <v>12377</v>
       </c>
     </row>
     <row r="89" spans="1:31">
@@ -9132,94 +9141,94 @@
         <v>118</v>
       </c>
       <c r="B89">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C89">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D89">
-        <v>1279</v>
+        <v>1271</v>
       </c>
       <c r="E89">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="F89">
         <v>132</v>
       </c>
       <c r="G89">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="H89">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I89">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K89">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L89">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M89">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N89">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O89">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P89">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q89">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="R89">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="S89">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="T89">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U89">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V89">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="W89">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="X89">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="Y89">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="Z89">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="AA89">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AB89">
-        <v>10459</v>
+        <v>10486</v>
       </c>
       <c r="AC89">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="AD89">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AE89">
-        <v>11355</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="90" spans="1:31">
@@ -9227,94 +9236,94 @@
         <v>119</v>
       </c>
       <c r="B90">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C90">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D90">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E90">
         <v>1136</v>
       </c>
       <c r="F90">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G90">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="H90">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I90">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J90">
         <v>16</v>
       </c>
       <c r="K90">
+        <v>60</v>
+      </c>
+      <c r="L90">
+        <v>94</v>
+      </c>
+      <c r="M90">
+        <v>72</v>
+      </c>
+      <c r="N90">
+        <v>187</v>
+      </c>
+      <c r="O90">
         <v>61</v>
-      </c>
-      <c r="L90">
-        <v>93</v>
-      </c>
-      <c r="M90">
-        <v>67</v>
-      </c>
-      <c r="N90">
-        <v>184</v>
-      </c>
-      <c r="O90">
-        <v>62</v>
       </c>
       <c r="P90">
         <v>203</v>
       </c>
       <c r="Q90">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="R90">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S90">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="T90">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U90">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V90">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="W90">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="X90">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="Y90">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="Z90">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="AA90">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AB90">
-        <v>10246</v>
+        <v>10252</v>
       </c>
       <c r="AC90">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="AD90">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AE90">
-        <v>11144</v>
+        <v>11161</v>
       </c>
     </row>
     <row r="91" spans="1:31">
@@ -9322,34 +9331,34 @@
         <v>120</v>
       </c>
       <c r="B91">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C91">
         <v>66</v>
       </c>
       <c r="D91">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="E91">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="F91">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G91">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H91">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="I91">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J91">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K91">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L91">
         <v>90</v>
@@ -9361,55 +9370,55 @@
         <v>191</v>
       </c>
       <c r="O91">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P91">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q91">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="R91">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="S91">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="T91">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U91">
         <v>454</v>
       </c>
       <c r="V91">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="W91">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="X91">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="Y91">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="Z91">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="AA91">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AB91">
-        <v>10238</v>
+        <v>10200</v>
       </c>
       <c r="AC91">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AD91">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AE91">
-        <v>11157</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="92" spans="1:31">
@@ -9423,22 +9432,22 @@
         <v>71</v>
       </c>
       <c r="D92">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="E92">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="F92">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G92">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="H92">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I92">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J92">
         <v>21</v>
@@ -9453,58 +9462,58 @@
         <v>56</v>
       </c>
       <c r="N92">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O92">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P92">
         <v>206</v>
       </c>
       <c r="Q92">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="R92">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="S92">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="T92">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U92">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V92">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="W92">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="X92">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Y92">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="Z92">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="AA92">
         <v>617</v>
       </c>
       <c r="AB92">
-        <v>10441</v>
+        <v>10416</v>
       </c>
       <c r="AC92">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="AD92">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE92">
-        <v>11431</v>
+        <v>11410</v>
       </c>
     </row>
     <row r="93" spans="1:31">
@@ -9518,25 +9527,25 @@
         <v>84</v>
       </c>
       <c r="D93">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E93">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F93">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G93">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="H93">
         <v>359</v>
       </c>
       <c r="I93">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K93">
         <v>68</v>
@@ -9551,19 +9560,19 @@
         <v>204</v>
       </c>
       <c r="O93">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P93">
         <v>219</v>
       </c>
       <c r="Q93">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R93">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="S93">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="T93">
         <v>148</v>
@@ -9575,31 +9584,31 @@
         <v>453</v>
       </c>
       <c r="W93">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="X93">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="Y93">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="Z93">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="AA93">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AB93">
-        <v>10676</v>
+        <v>10663</v>
       </c>
       <c r="AC93">
-        <v>1052</v>
+        <v>1063</v>
       </c>
       <c r="AD93">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE93">
-        <v>11771</v>
+        <v>11769</v>
       </c>
     </row>
     <row r="94" spans="1:31">
@@ -9607,7 +9616,7 @@
         <v>123</v>
       </c>
       <c r="B94">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C94">
         <v>73</v>
@@ -9622,7 +9631,7 @@
         <v>121</v>
       </c>
       <c r="G94">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="H94">
         <v>361</v>
@@ -9640,7 +9649,7 @@
         <v>94</v>
       </c>
       <c r="M94">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N94">
         <v>206</v>
@@ -9655,46 +9664,46 @@
         <v>349</v>
       </c>
       <c r="R94">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="S94">
-        <v>1271</v>
+        <v>1262</v>
       </c>
       <c r="T94">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U94">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="V94">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W94">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="X94">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Y94">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="Z94">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="AA94">
         <v>622</v>
       </c>
       <c r="AB94">
-        <v>11211</v>
+        <v>11200</v>
       </c>
       <c r="AC94">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AD94">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE94">
-        <v>12326</v>
+        <v>12313</v>
       </c>
     </row>
     <row r="95" spans="1:31">
@@ -9702,13 +9711,13 @@
         <v>124</v>
       </c>
       <c r="B95">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C95">
         <v>57</v>
       </c>
       <c r="D95">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E95">
         <v>1164</v>
@@ -9717,13 +9726,13 @@
         <v>123</v>
       </c>
       <c r="G95">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="H95">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I95">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J95">
         <v>29</v>
@@ -9735,61 +9744,61 @@
         <v>100</v>
       </c>
       <c r="M95">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N95">
         <v>211</v>
       </c>
       <c r="O95">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P95">
         <v>227</v>
       </c>
       <c r="Q95">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R95">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="S95">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="T95">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U95">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="V95">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="W95">
         <v>719</v>
       </c>
       <c r="X95">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="Y95">
         <v>951</v>
       </c>
       <c r="Z95">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="AA95">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AB95">
-        <v>11229</v>
+        <v>11236</v>
       </c>
       <c r="AC95">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="AD95">
         <v>50</v>
       </c>
       <c r="AE95">
-        <v>12357</v>
+        <v>12358</v>
       </c>
     </row>
     <row r="96" spans="1:31">
@@ -9797,28 +9806,28 @@
         <v>125</v>
       </c>
       <c r="B96">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C96">
         <v>65</v>
       </c>
       <c r="D96">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="E96">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F96">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G96">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="H96">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I96">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>30</v>
@@ -9830,7 +9839,7 @@
         <v>99</v>
       </c>
       <c r="M96">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N96">
         <v>198</v>
@@ -9842,49 +9851,49 @@
         <v>229</v>
       </c>
       <c r="Q96">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="R96">
         <v>724</v>
       </c>
       <c r="S96">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="T96">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="U96">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V96">
         <v>477</v>
       </c>
       <c r="W96">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="X96">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="Y96">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="Z96">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="AA96">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AB96">
-        <v>11424</v>
+        <v>11432</v>
       </c>
       <c r="AC96">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="AD96">
         <v>44</v>
       </c>
       <c r="AE96">
-        <v>12556</v>
+        <v>12557</v>
       </c>
     </row>
     <row r="97" spans="1:31">
@@ -9892,28 +9901,28 @@
         <v>126</v>
       </c>
       <c r="B97">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C97">
         <v>72</v>
       </c>
       <c r="D97">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="E97">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F97">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G97">
         <v>1352</v>
       </c>
       <c r="H97">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I97">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J97">
         <v>32</v>
@@ -9925,61 +9934,61 @@
         <v>98</v>
       </c>
       <c r="M97">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N97">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O97">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P97">
         <v>231</v>
       </c>
       <c r="Q97">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="R97">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="S97">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="T97">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U97">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V97">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W97">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="X97">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="Y97">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="Z97">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="AA97">
         <v>626</v>
       </c>
       <c r="AB97">
-        <v>11727</v>
+        <v>11728</v>
       </c>
       <c r="AC97">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="AD97">
         <v>57</v>
       </c>
       <c r="AE97">
-        <v>12879</v>
+        <v>12873</v>
       </c>
     </row>
     <row r="98" spans="1:31">
@@ -9987,34 +9996,34 @@
         <v>127</v>
       </c>
       <c r="B98">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C98">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D98">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E98">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F98">
         <v>139</v>
       </c>
       <c r="G98">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="H98">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I98">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="J98">
         <v>30</v>
       </c>
       <c r="K98">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L98">
         <v>94</v>
@@ -10023,58 +10032,58 @@
         <v>93</v>
       </c>
       <c r="N98">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O98">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P98">
         <v>237</v>
       </c>
       <c r="Q98">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="R98">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="S98">
-        <v>1318</v>
+        <v>1311</v>
       </c>
       <c r="T98">
         <v>182</v>
       </c>
       <c r="U98">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="V98">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="W98">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="X98">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="Y98">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="Z98">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="AA98">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AB98">
-        <v>11807</v>
+        <v>11816</v>
       </c>
       <c r="AC98">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="AD98">
         <v>52</v>
       </c>
       <c r="AE98">
-        <v>12964</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="99" spans="1:31">
@@ -10082,28 +10091,28 @@
         <v>128</v>
       </c>
       <c r="B99">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C99">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="E99">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="F99">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G99">
-        <v>1360</v>
+        <v>1369</v>
       </c>
       <c r="H99">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I99">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="J99">
         <v>30</v>
@@ -10115,61 +10124,61 @@
         <v>91</v>
       </c>
       <c r="M99">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N99">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O99">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P99">
         <v>240</v>
       </c>
       <c r="Q99">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="R99">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="S99">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="T99">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U99">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="V99">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="W99">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="X99">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="Y99">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="Z99">
         <v>1585</v>
       </c>
       <c r="AA99">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AB99">
-        <v>11915</v>
+        <v>11938</v>
       </c>
       <c r="AC99">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="AD99">
         <v>69</v>
       </c>
       <c r="AE99">
-        <v>13099</v>
+        <v>13112</v>
       </c>
     </row>
     <row r="100" spans="1:31">
@@ -10177,94 +10186,379 @@
         <v>129</v>
       </c>
       <c r="B100">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C100">
         <v>77</v>
       </c>
       <c r="D100">
-        <v>1279</v>
+        <v>1290</v>
       </c>
       <c r="E100">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="F100">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G100">
-        <v>1346</v>
+        <v>1362</v>
       </c>
       <c r="H100">
         <v>361</v>
       </c>
       <c r="I100">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J100">
         <v>30</v>
       </c>
       <c r="K100">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L100">
         <v>97</v>
       </c>
       <c r="M100">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N100">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O100">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P100">
         <v>240</v>
       </c>
       <c r="Q100">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="R100">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="S100">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="T100">
+        <v>200</v>
+      </c>
+      <c r="U100">
+        <v>576</v>
+      </c>
+      <c r="V100">
+        <v>500</v>
+      </c>
+      <c r="W100">
+        <v>724</v>
+      </c>
+      <c r="X100">
+        <v>1312</v>
+      </c>
+      <c r="Y100">
+        <v>973</v>
+      </c>
+      <c r="Z100">
+        <v>1437</v>
+      </c>
+      <c r="AA100">
+        <v>634</v>
+      </c>
+      <c r="AB100">
+        <v>11819</v>
+      </c>
+      <c r="AC100">
+        <v>1103</v>
+      </c>
+      <c r="AD100">
+        <v>61</v>
+      </c>
+      <c r="AE100">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
+      <c r="A101" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101">
+        <v>367</v>
+      </c>
+      <c r="C101">
+        <v>69</v>
+      </c>
+      <c r="D101">
+        <v>1337</v>
+      </c>
+      <c r="E101">
+        <v>1198</v>
+      </c>
+      <c r="F101">
+        <v>139</v>
+      </c>
+      <c r="G101">
+        <v>1353</v>
+      </c>
+      <c r="H101">
+        <v>364</v>
+      </c>
+      <c r="I101">
+        <v>180</v>
+      </c>
+      <c r="J101">
+        <v>27</v>
+      </c>
+      <c r="K101">
+        <v>73</v>
+      </c>
+      <c r="L101">
+        <v>94</v>
+      </c>
+      <c r="M101">
+        <v>90</v>
+      </c>
+      <c r="N101">
+        <v>208</v>
+      </c>
+      <c r="O101">
+        <v>85</v>
+      </c>
+      <c r="P101">
+        <v>236</v>
+      </c>
+      <c r="Q101">
+        <v>362</v>
+      </c>
+      <c r="R101">
+        <v>721</v>
+      </c>
+      <c r="S101">
+        <v>1287</v>
+      </c>
+      <c r="T101">
+        <v>176</v>
+      </c>
+      <c r="U101">
+        <v>518</v>
+      </c>
+      <c r="V101">
+        <v>485</v>
+      </c>
+      <c r="W101">
+        <v>731</v>
+      </c>
+      <c r="X101">
+        <v>1290</v>
+      </c>
+      <c r="Y101">
+        <v>967</v>
+      </c>
+      <c r="Z101">
+        <v>1379</v>
+      </c>
+      <c r="AA101">
+        <v>636</v>
+      </c>
+      <c r="AB101">
+        <v>11652</v>
+      </c>
+      <c r="AC101">
+        <v>1094</v>
+      </c>
+      <c r="AD101">
+        <v>63</v>
+      </c>
+      <c r="AE101">
+        <v>12808</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
+      <c r="A102" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102">
+        <v>369</v>
+      </c>
+      <c r="C102">
+        <v>78</v>
+      </c>
+      <c r="D102">
+        <v>1295</v>
+      </c>
+      <c r="E102">
+        <v>1148</v>
+      </c>
+      <c r="F102">
+        <v>146</v>
+      </c>
+      <c r="G102">
+        <v>1364</v>
+      </c>
+      <c r="H102">
+        <v>349</v>
+      </c>
+      <c r="I102">
+        <v>188</v>
+      </c>
+      <c r="J102">
+        <v>31</v>
+      </c>
+      <c r="K102">
+        <v>76</v>
+      </c>
+      <c r="L102">
+        <v>97</v>
+      </c>
+      <c r="M102">
+        <v>94</v>
+      </c>
+      <c r="N102">
         <v>202</v>
       </c>
-      <c r="U100">
-        <v>581</v>
-      </c>
-      <c r="V100">
-        <v>498</v>
-      </c>
-      <c r="W100">
-        <v>719</v>
-      </c>
-      <c r="X100">
+      <c r="O102">
+        <v>86</v>
+      </c>
+      <c r="P102">
+        <v>245</v>
+      </c>
+      <c r="Q102">
+        <v>377</v>
+      </c>
+      <c r="R102">
+        <v>753</v>
+      </c>
+      <c r="S102">
+        <v>1457</v>
+      </c>
+      <c r="T102">
+        <v>219</v>
+      </c>
+      <c r="U102">
+        <v>545</v>
+      </c>
+      <c r="V102">
+        <v>492</v>
+      </c>
+      <c r="W102">
+        <v>747</v>
+      </c>
+      <c r="X102">
+        <v>1277</v>
+      </c>
+      <c r="Y102">
+        <v>972</v>
+      </c>
+      <c r="Z102">
+        <v>1404</v>
+      </c>
+      <c r="AA102">
+        <v>637</v>
+      </c>
+      <c r="AB102">
+        <v>11949</v>
+      </c>
+      <c r="AC102">
+        <v>1217</v>
+      </c>
+      <c r="AD102">
+        <v>56</v>
+      </c>
+      <c r="AE102">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
+      <c r="A103" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103">
+        <v>369</v>
+      </c>
+      <c r="C103">
+        <v>72</v>
+      </c>
+      <c r="D103">
         <v>1308</v>
       </c>
-      <c r="Y100">
-        <v>965</v>
-      </c>
-      <c r="Z100">
-        <v>1439</v>
-      </c>
-      <c r="AA100">
-        <v>629</v>
-      </c>
-      <c r="AB100">
-        <v>11759</v>
-      </c>
-      <c r="AC100">
-        <v>1116</v>
-      </c>
-      <c r="AD100">
-        <v>60</v>
-      </c>
-      <c r="AE100">
-        <v>12934</v>
+      <c r="E103">
+        <v>1161</v>
+      </c>
+      <c r="F103">
+        <v>147</v>
+      </c>
+      <c r="G103">
+        <v>1412</v>
+      </c>
+      <c r="H103">
+        <v>368</v>
+      </c>
+      <c r="I103">
+        <v>195</v>
+      </c>
+      <c r="J103">
+        <v>31</v>
+      </c>
+      <c r="K103">
+        <v>75</v>
+      </c>
+      <c r="L103">
+        <v>98</v>
+      </c>
+      <c r="M103">
+        <v>99</v>
+      </c>
+      <c r="N103">
+        <v>207</v>
+      </c>
+      <c r="O103">
+        <v>87</v>
+      </c>
+      <c r="P103">
+        <v>251</v>
+      </c>
+      <c r="Q103">
+        <v>382</v>
+      </c>
+      <c r="R103">
+        <v>769</v>
+      </c>
+      <c r="S103">
+        <v>1482</v>
+      </c>
+      <c r="T103">
+        <v>227</v>
+      </c>
+      <c r="U103">
+        <v>572</v>
+      </c>
+      <c r="V103">
+        <v>485</v>
+      </c>
+      <c r="W103">
+        <v>753</v>
+      </c>
+      <c r="X103">
+        <v>1293</v>
+      </c>
+      <c r="Y103">
+        <v>978</v>
+      </c>
+      <c r="Z103">
+        <v>1447</v>
+      </c>
+      <c r="AA103">
+        <v>636</v>
+      </c>
+      <c r="AB103">
+        <v>12157</v>
+      </c>
+      <c r="AC103">
+        <v>1225</v>
+      </c>
+      <c r="AD103">
+        <v>62</v>
+      </c>
+      <c r="AE103">
+        <v>13438</v>
       </c>
     </row>
   </sheetData>
